--- a/analysis/fixation_stability/raw_data/ml_fix_x.xlsx
+++ b/analysis/fixation_stability/raw_data/ml_fix_x.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azafar\Documents\GitHub\eyelink-adhawk-validation-gui\analysis\fixation_stability\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849EA097-171E-48C4-A13E-B99B730A2977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7C7136-E0FD-4D3D-934C-AC1CFAA45661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A9235A2A-F194-4E29-9B2D-6456A7096C89}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
